--- a/Torch runner 2/Torch runner 2/Stage01.xlsx
+++ b/Torch runner 2/Torch runner 2/Stage01.xlsx
@@ -418,8 +418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:GR10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BJ1" workbookViewId="0">
-      <selection activeCell="CZ10" sqref="CZ10"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4716,10 +4716,10 @@
         <v>1</v>
       </c>
       <c r="U8" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="V8" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W8" s="1">
         <v>0</v>
